--- a/tasks/finalpool/language-school/initial_workspace/format.xlsx
+++ b/tasks/finalpool/language-school/initial_workspace/format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentin/Desktop/RESEARCH/MCP/final pool/mcpbench_dev/tasks/dev/language-school/initial_workspace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lockon\Desktop\tes\tmp\test\language-school\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16520FE-1651-014B-8634-4664DF02BD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96667CE-3E64-48A3-B5D2-5B955B977E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="2880" windowWidth="28100" windowHeight="17360" xr2:uid="{B42217A9-C479-EC4F-B3D7-6D8E2037FF88}"/>
+    <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{B42217A9-C479-EC4F-B3D7-6D8E2037FF88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -50,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Toefl_required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Toefl_min_score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +56,10 @@
   </si>
   <si>
     <t>Application_ddl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toefl_accepted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,12 +447,12 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,22 +463,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
